--- a/Doc/Catalog.xlsx
+++ b/Doc/Catalog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -48,163 +48,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good|Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Society</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Traffic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good|Tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Military</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>House</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Travel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,12 +611,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -588,7 +624,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -596,15 +632,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -612,7 +648,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -620,15 +656,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -636,93 +672,96 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -730,34 +769,66 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Catalog.xlsx
+++ b/Doc/Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LocName</t>
-  </si>
-  <si>
     <t>社会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +238,10 @@
   </si>
   <si>
     <t>Sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +596,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,227 +609,227 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Catalog.xlsx
+++ b/Doc/Catalog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ParentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Society</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Good|Tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Internet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,51 +189,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>女人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameLoc</t>
+    <t>数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,53 +605,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -647,194 +657,210 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/Catalog.xlsx
+++ b/Doc/Catalog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="239">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,22 @@
   </si>
   <si>
     <t>economic_insure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏观经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic_macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic_invest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,15 +1248,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2505,6 +2523,28 @@
         <v>89</v>
       </c>
       <c r="C118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="s">
         <v>88</v>
       </c>
     </row>
